--- a/Redwood-cronacle/MappingLogic.xlsx
+++ b/Redwood-cronacle/MappingLogic.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505C2720-93D9-4226-B9BE-DB05CA410596}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E93AAD-4830-43E3-8274-16723D33C779}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="120">
   <si>
     <t>Comments</t>
   </si>
@@ -94,9 +94,6 @@
     <t>SAPR3 Job Type</t>
   </si>
   <si>
-    <t>JobDefinitionType &gt; path attribute = GLOBAL.SAPR3</t>
-  </si>
-  <si>
     <t>SAPR3 Job Name</t>
   </si>
   <si>
@@ -115,16 +112,10 @@
     <t>SAPBW Job Type</t>
   </si>
   <si>
-    <t>JobDefinitionType &gt; path attribute = GLOBAL.SAPR3 &amp;&amp; SAPScript &gt; SAPScriptAttribute &gt; value of Value Element="BW_CHAIN_RUN"</t>
-  </si>
-  <si>
     <t>SABBW Process Chain Id</t>
   </si>
   <si>
     <t>By the JobChainCall order</t>
-  </si>
-  <si>
-    <t>The Mapping Logic From RMJ Data</t>
   </si>
   <si>
     <t>JobDefinitionParameter &gt; Value of DefaultExpression
@@ -140,9 +131,6 @@
   </si>
   <si>
     <t>Abap Step Parameter</t>
-  </si>
-  <si>
-    <t>RMJ Value</t>
   </si>
   <si>
     <t>ABAP_PROGRAM_NAME</t>
@@ -361,6 +349,42 @@
     <t>JobDefinitionParameter &gt; Value of DefaultExpression
 When: JobDefinitionParameter &gt; Value of Name Element=Step parameter name
 ***(Step parameters description in the "Abap Step Parameter" table)***</t>
+  </si>
+  <si>
+    <t>OS Embedded Script Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JobDefinitionType &gt; path attribute doesn’t contains ".SAPR3" &amp;&amp; Script element exists </t>
+  </si>
+  <si>
+    <t>OS Embedded Script - Script</t>
+  </si>
+  <si>
+    <t>OS Embedded Script - file name</t>
+  </si>
+  <si>
+    <t>&lt;Value of Name Element&gt;.cmd</t>
+  </si>
+  <si>
+    <t>OS Embedded Script - Run As</t>
+  </si>
+  <si>
+    <t>Script &gt; value of RunAsUser Element</t>
+  </si>
+  <si>
+    <t>Script &gt; Value of Source Element</t>
+  </si>
+  <si>
+    <t>JobDefinitionType &gt; path attribute contains ".SAPR3"</t>
+  </si>
+  <si>
+    <t>JobDefinitionType &gt; path attribute contains ".SAPR3" &amp;&amp; SAPScript &gt; SAPScriptAttribute &gt; value of Value Element="BW_CHAIN_RUN"</t>
+  </si>
+  <si>
+    <t>The Mapping Logic From Redwood Cronacle Data</t>
+  </si>
+  <si>
+    <t>Redwood cronacle Value</t>
   </si>
 </sst>
 </file>
@@ -442,7 +466,7 @@
   <autoFilter ref="A1:C31" xr:uid="{B2D7850D-0D1F-4F51-A120-A73B09863325}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{446A732B-9F3D-4AEE-9D6E-8535B7285F20}" name="Control-M Data"/>
-    <tableColumn id="2" xr3:uid="{91A77FB9-9B40-4FEF-92D9-876F5F5D50F1}" name="The Mapping Logic From RMJ Data"/>
+    <tableColumn id="2" xr3:uid="{91A77FB9-9B40-4FEF-92D9-876F5F5D50F1}" name="The Mapping Logic From Redwood Cronacle Data"/>
     <tableColumn id="3" xr3:uid="{E1AB93CF-8DAB-44F9-ACFC-3A246A0D6AFD}" name="Comments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -454,7 +478,7 @@
   <autoFilter ref="F1:G27" xr:uid="{305D262F-CB10-41BE-8D5F-AD369186F2CE}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{1B7B1504-53DB-436C-B387-DEFEB34D9569}" name="Abap Step Parameter"/>
-    <tableColumn id="2" xr3:uid="{EE660B2B-869D-4DD5-8DF9-C32AAB23A47B}" name="RMJ Value"/>
+    <tableColumn id="2" xr3:uid="{EE660B2B-869D-4DD5-8DF9-C32AAB23A47B}" name="Redwood cronacle Value"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -735,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -755,19 +779,19 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G1" t="s">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -778,13 +802,13 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
@@ -795,13 +819,13 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
@@ -812,13 +836,13 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
@@ -829,13 +853,13 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -846,13 +870,13 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -863,13 +887,13 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -880,13 +904,13 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
@@ -897,13 +921,13 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -914,13 +938,13 @@
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -931,13 +955,13 @@
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
@@ -948,13 +972,13 @@
         <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
@@ -965,13 +989,13 @@
         <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
@@ -979,16 +1003,16 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -996,271 +1020,295 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D18" s="1"/>
       <c r="F18" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G18" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G19" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="F21" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G21" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F22" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" t="s">
+        <v>75</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" t="s">
+        <v>77</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" t="s">
         <v>80</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G24" t="s">
         <v>79</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="J24" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F23" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" t="s">
         <v>82</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G25" t="s">
         <v>81</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F24" t="s">
+      <c r="J25" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" t="s">
         <v>84</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G26" t="s">
         <v>83</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F25" t="s">
-        <v>86</v>
-      </c>
-      <c r="G25" t="s">
-        <v>85</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F26" t="s">
-        <v>88</v>
-      </c>
-      <c r="G26" t="s">
-        <v>87</v>
-      </c>
       <c r="J26" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F27" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G27" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J28" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J29" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J30" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J31" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J32" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J33" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J34" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J35" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J36" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J37" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J38" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J39" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J40" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J41" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J42" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J43" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/Redwood-cronacle/MappingLogic.xlsx
+++ b/Redwood-cronacle/MappingLogic.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E93AAD-4830-43E3-8274-16723D33C779}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D792AE2-7E7C-46A5-BCBF-DDB53A312EFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="116">
   <si>
     <t>Comments</t>
   </si>
@@ -34,48 +34,21 @@
     <t>Folder</t>
   </si>
   <si>
-    <t>Folder Name</t>
-  </si>
-  <si>
     <t>Value of Name Element</t>
   </si>
   <si>
-    <t>Job Name</t>
-  </si>
-  <si>
-    <t>Folder Description</t>
-  </si>
-  <si>
     <t>Value of Description Element</t>
   </si>
   <si>
-    <t>Job Description</t>
-  </si>
-  <si>
-    <t>Folder Application</t>
-  </si>
-  <si>
     <t>JobDefinitionType &gt; path attribute: containts "JobChain"</t>
   </si>
   <si>
     <t>JobDefinitionType &gt; path attribute:  doesn’t containts "JobChain"</t>
   </si>
   <si>
-    <t>Folder Sub Application</t>
-  </si>
-  <si>
     <t>ParentApplication &gt; path attribute: the value after the second dot</t>
   </si>
   <si>
-    <t>Job Application</t>
-  </si>
-  <si>
-    <t>ParentApplication &gt; path attribute: the value between the first and the second dot</t>
-  </si>
-  <si>
-    <t>Job Sub Application</t>
-  </si>
-  <si>
     <t>Job Host</t>
   </si>
   <si>
@@ -100,9 +73,6 @@
     <t>JOBNAME</t>
   </si>
   <si>
-    <t>JobDefinitionParameter &gt; Value of DefaultExpression</t>
-  </si>
-  <si>
     <t>SAPR3 JOBCLASS</t>
   </si>
   <si>
@@ -115,21 +85,6 @@
     <t>SABBW Process Chain Id</t>
   </si>
   <si>
-    <t>By the JobChainCall order</t>
-  </si>
-  <si>
-    <t>JobDefinitionParameter &gt; Value of DefaultExpression
-When: JobDefinitionParameter &gt; Value of Name Element="JOBNAME"</t>
-  </si>
-  <si>
-    <t>JobDefinitionParameter &gt; Value of DefaultExpression
-When: JobDefinitionParameter &gt; Value of Name Element=" JOBCLASS"</t>
-  </si>
-  <si>
-    <t>JobDefinitionParameter &gt; Value of DefaultExpression
-When: JobDefinitionParameter &gt; Value of Name Element="NAME"</t>
-  </si>
-  <si>
     <t>Abap Step Parameter</t>
   </si>
   <si>
@@ -286,18 +241,6 @@
     <t>Archive Text</t>
   </si>
   <si>
-    <t>SAPR3 Variable Name</t>
-  </si>
-  <si>
-    <t>SAPR3 Variable Value</t>
-  </si>
-  <si>
-    <t>JobDefinitionParameter &gt; Value of Name Element (only if the name doesn’t include in the "Non variables names" list)</t>
-  </si>
-  <si>
-    <t>Non variables names</t>
-  </si>
-  <si>
     <t>JOBCLASS</t>
   </si>
   <si>
@@ -346,45 +289,85 @@
     <t>CLIENT</t>
   </si>
   <si>
-    <t>JobDefinitionParameter &gt; Value of DefaultExpression
-When: JobDefinitionParameter &gt; Value of Name Element=Step parameter name
-***(Step parameters description in the "Abap Step Parameter" table)***</t>
-  </si>
-  <si>
     <t>OS Embedded Script Type</t>
   </si>
   <si>
-    <t xml:space="preserve">JobDefinitionType &gt; path attribute doesn’t contains ".SAPR3" &amp;&amp; Script element exists </t>
-  </si>
-  <si>
     <t>OS Embedded Script - Script</t>
   </si>
   <si>
     <t>OS Embedded Script - file name</t>
   </si>
   <si>
-    <t>&lt;Value of Name Element&gt;.cmd</t>
-  </si>
-  <si>
     <t>OS Embedded Script - Run As</t>
   </si>
   <si>
-    <t>Script &gt; value of RunAsUser Element</t>
-  </si>
-  <si>
-    <t>Script &gt; Value of Source Element</t>
-  </si>
-  <si>
-    <t>JobDefinitionType &gt; path attribute contains ".SAPR3"</t>
-  </si>
-  <si>
-    <t>JobDefinitionType &gt; path attribute contains ".SAPR3" &amp;&amp; SAPScript &gt; SAPScriptAttribute &gt; value of Value Element="BW_CHAIN_RUN"</t>
-  </si>
-  <si>
-    <t>The Mapping Logic From Redwood Cronacle Data</t>
-  </si>
-  <si>
-    <t>Redwood cronacle Value</t>
+    <t>Redwood patameters list that are being converted to control-m attribute</t>
+  </si>
+  <si>
+    <t>Folder/Job Name</t>
+  </si>
+  <si>
+    <t>Folder/Job Description</t>
+  </si>
+  <si>
+    <t>Folder/Job Application</t>
+  </si>
+  <si>
+    <t>Folder/Job Sub Application</t>
+  </si>
+  <si>
+    <t>ParentApplication &gt; path attribute: the value between the first and the second dot.</t>
+  </si>
+  <si>
+    <t>Create condition between entities according to the order of JobChainStep &gt; JobChainCall</t>
+  </si>
+  <si>
+    <t>JobDefinitionType &gt; path attribute = GLOBAL.SAPR3</t>
+  </si>
+  <si>
+    <t>If Value of JobDefinitionParameter &gt; Name Element equals JOBNAME then value of  JobDefinitionParameter &gt; DefaultExpression</t>
+  </si>
+  <si>
+    <t>If Value of JobDefinitionParameter &gt; Name Element equals JOBCLASS then value of  JobDefinitionParameter &gt; DefaultExpression</t>
+  </si>
+  <si>
+    <t>Create Variable with name from the Value of JobDefinitionParameter &gt; Name Element (only if the name doesnt include in the "Redwood patameters list that are being converted to control-m attribute")</t>
+  </si>
+  <si>
+    <t>Variable Name</t>
+  </si>
+  <si>
+    <t>Value of JobDefinitionParameter &gt; DefaultExpression</t>
+  </si>
+  <si>
+    <t>Variable Value</t>
+  </si>
+  <si>
+    <t>If Value of JobDefinitionParameter &gt; Name Element equals Step parameter name then value of DefaultExpression Converted to SAPR3 Step Parameter**(Step parameters description in the "Abap Step Parameters" table)**</t>
+  </si>
+  <si>
+    <t>JobDefinitionType &gt; path attribute = GLOBAL.SAPR3 &amp;&amp; value of** SAPScript &gt; SAPScriptAttribute &gt;Value** Element="BW_CHAIN_RUN"</t>
+  </si>
+  <si>
+    <t>If Value of JobDefinitionParameter &gt; Name Element equals NAME then value of **JobDefinitionParameter &gt; DefaultExpression **</t>
+  </si>
+  <si>
+    <t>JobDefinitionType &gt; path attribute doesn’t contains ".SAPR3" &amp;&amp; Script element exists</t>
+  </si>
+  <si>
+    <t>Value of Script &gt; Source Element</t>
+  </si>
+  <si>
+    <t>&lt;Control-M job name&gt;.cmd</t>
+  </si>
+  <si>
+    <t>Value of Script &gt; RunAsUser Element</t>
+  </si>
+  <si>
+    <t>The Mapping Logic From Redwood Cronacle  Data</t>
+  </si>
+  <si>
+    <t>Redwood Cronacle Value</t>
   </si>
 </sst>
 </file>
@@ -462,11 +445,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EFB3D46C-F1DD-499F-8C44-01E64099A208}" name="Table2" displayName="Table2" ref="A1:C31" totalsRowShown="0">
-  <autoFilter ref="A1:C31" xr:uid="{B2D7850D-0D1F-4F51-A120-A73B09863325}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EFB3D46C-F1DD-499F-8C44-01E64099A208}" name="Table2" displayName="Table2" ref="A1:C27" totalsRowShown="0">
+  <autoFilter ref="A1:C27" xr:uid="{B2D7850D-0D1F-4F51-A120-A73B09863325}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{446A732B-9F3D-4AEE-9D6E-8535B7285F20}" name="Control-M Data"/>
-    <tableColumn id="2" xr3:uid="{91A77FB9-9B40-4FEF-92D9-876F5F5D50F1}" name="The Mapping Logic From Redwood Cronacle Data"/>
+    <tableColumn id="2" xr3:uid="{91A77FB9-9B40-4FEF-92D9-876F5F5D50F1}" name="The Mapping Logic From Redwood Cronacle  Data"/>
     <tableColumn id="3" xr3:uid="{E1AB93CF-8DAB-44F9-ACFC-3A246A0D6AFD}" name="Comments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -478,7 +461,7 @@
   <autoFilter ref="F1:G27" xr:uid="{305D262F-CB10-41BE-8D5F-AD369186F2CE}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{1B7B1504-53DB-436C-B387-DEFEB34D9569}" name="Abap Step Parameter"/>
-    <tableColumn id="2" xr3:uid="{EE660B2B-869D-4DD5-8DF9-C32AAB23A47B}" name="Redwood cronacle Value"/>
+    <tableColumn id="2" xr3:uid="{EE660B2B-869D-4DD5-8DF9-C32AAB23A47B}" name="Redwood Cronacle Value"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -488,7 +471,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5717332C-4EA9-4202-AE61-8C74A97416F4}" name="Table4" displayName="Table4" ref="J1:J43" totalsRowShown="0" tableBorderDxfId="0">
   <autoFilter ref="J1:J43" xr:uid="{E477E4A1-30B6-4DCB-B2BB-1BD22561D350}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{F8F124AF-E2D1-438D-ADA3-4D6533253C64}" name="Non variables names"/>
+    <tableColumn id="1" xr3:uid="{F8F124AF-E2D1-438D-ADA3-4D6533253C64}" name="Redwood patameters list that are being converted to control-m attribute"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -759,556 +742,532 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="114.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.36328125" customWidth="1"/>
-    <col min="6" max="6" width="32.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="114.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="69.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" t="s">
         <v>47</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="J15" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" t="s">
         <v>49</v>
       </c>
-      <c r="G8" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="J16" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" t="s">
         <v>51</v>
       </c>
-      <c r="G9" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" t="s">
-        <v>53</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" t="s">
-        <v>55</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="J17" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" t="s">
-        <v>57</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" t="s">
-        <v>59</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>116</v>
-      </c>
-      <c r="F15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" t="s">
-        <v>61</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" t="s">
-        <v>64</v>
-      </c>
-      <c r="G16" t="s">
-        <v>63</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>66</v>
-      </c>
-      <c r="G17" t="s">
-        <v>65</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>87</v>
-      </c>
       <c r="B18" s="3" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="D18" s="1"/>
       <c r="F18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" t="s">
+        <v>55</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" t="s">
+        <v>59</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" t="s">
+        <v>61</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" t="s">
+        <v>63</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" t="s">
+        <v>65</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
         <v>68</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G25" t="s">
         <v>67</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J25" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" t="s">
+        <v>69</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>72</v>
+      </c>
+      <c r="G27" t="s">
+        <v>71</v>
+      </c>
+      <c r="J27" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J28" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J29" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J30" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J31" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J32" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J33" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J34" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J35" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J36" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J37" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J38" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J39" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J40" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J41" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J42" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" t="s">
-        <v>69</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F20" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20" t="s">
-        <v>71</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" t="s">
-        <v>117</v>
-      </c>
-      <c r="F21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G21" t="s">
-        <v>73</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" t="s">
-        <v>75</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>108</v>
-      </c>
-      <c r="B23" t="s">
-        <v>109</v>
-      </c>
-      <c r="F23" t="s">
-        <v>78</v>
-      </c>
-      <c r="G23" t="s">
-        <v>77</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>110</v>
-      </c>
-      <c r="B24" t="s">
-        <v>115</v>
-      </c>
-      <c r="F24" t="s">
-        <v>80</v>
-      </c>
-      <c r="G24" t="s">
-        <v>79</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>111</v>
-      </c>
-      <c r="B25" t="s">
-        <v>112</v>
-      </c>
-      <c r="F25" t="s">
-        <v>82</v>
-      </c>
-      <c r="G25" t="s">
-        <v>81</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>113</v>
-      </c>
-      <c r="B26" t="s">
-        <v>114</v>
-      </c>
-      <c r="F26" t="s">
-        <v>84</v>
-      </c>
-      <c r="G26" t="s">
-        <v>83</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="F27" t="s">
-        <v>86</v>
-      </c>
-      <c r="G27" t="s">
-        <v>85</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="J28" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="J29" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="J30" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="J31" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="J32" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J33" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J34" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J35" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J36" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J37" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J38" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J39" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J40" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="41" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J41" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="42" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J42" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="43" spans="10:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J43" s="2" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
